--- a/biology/Médecine/Maria_Montessori___Une_vie_au_service_des_enfants/Maria_Montessori___Une_vie_au_service_des_enfants.xlsx
+++ b/biology/Médecine/Maria_Montessori___Une_vie_au_service_des_enfants/Maria_Montessori___Une_vie_au_service_des_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Montessori : Une vie au service des enfants (Maria Montessori - Una vita per i bambini) est un téléfilm italien en deux parties réalisés par Gianluca Maria Tavarelli.
 La fiction narre l'histoire de Maria Montessori, célèbre pédagogue italienne et créatrice de la méthode qui porte son nom, encore aujourd'hui célèbre et proposée dans le monde entier.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1893, Maria Montessori est la première femme diplômée de la faculté de médecine de Rome. Malgré la misogynie de  l'époque, elle parvient, grâce au professeur Giuseppe Montessano, à se spécialiser en psychiatrie infantile, car Maria s'intéresse au sort des enfants abandonnés et recueillis dans les asiles. Elle entreprend de sauver ceux qui sont aptes à étudier. Maria propose alors une alternative pour les soigner : la pédagogie.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Maria Montessori : Une vie au service des enfants
 Titre original : Maria Montessori - Una vita per i bambini
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paola Cortellesi (VF : Ivana Coppola) : Maria Montessori
 Massimo Poggio : Giuseppe Montesano
@@ -635,7 +653,9 @@
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Initialement, le rôle avait été écrit pour Claudia Pandolfi, mais une grossesse imprévue de l'actrice l'a empêché d'interpréter le rôle. C'est finalement Paola Cortellesi qui a été choisie pour prendre sa place.</t>
         </is>
